--- a/documentation/sprint 4/Sprint 4 Burndown.xlsx
+++ b/documentation/sprint 4/Sprint 4 Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\Desktop\Soph Spring\COEN 2610 Software\NCAA-Bracket-Predictor\documentation\sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32C77A-FA37-4F04-B564-586C10A871E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCEFBB2-901A-4A58-94F8-02A2C6F95014}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{ED8BE696-56AC-4593-AF8D-57D33867E155}"/>
   </bookViews>
@@ -110,12 +110,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1260" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -123,14 +120,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint</a:t>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Sprint 4 Burndown Chart</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 4 Burndown Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -147,12 +139,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1260" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -186,7 +175,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -197,11 +186,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -357,7 +346,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -368,11 +357,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -550,12 +539,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -582,12 +568,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -598,7 +581,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -620,12 +603,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -667,12 +647,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -681,13 +658,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Story Points</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Story Points left</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -704,12 +676,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -742,12 +711,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -784,12 +750,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -831,7 +794,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -845,13 +812,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1410,10 +1374,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1741,7 +1705,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
